--- a/Flipkart_Automation/TestData/Data.xlsx
+++ b/Flipkart_Automation/TestData/Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -411,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -511,4 +512,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Flipkart_Automation/TestData/Data.xlsx
+++ b/Flipkart_Automation/TestData/Data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1B0A0-9D2C-4ADD-8C8E-329870504ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Search" sheetId="4" r:id="rId4"/>
+    <sheet name="Product" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>SearchTerm</t>
   </si>
@@ -43,17 +45,26 @@
     <t>secure*12</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Mobile</t>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>LEDTV</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>iphone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,20 +88,41 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,12 +133,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -126,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,18 +444,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,12 +465,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -443,20 +480,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -478,36 +515,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -515,15 +552,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>